--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2790469.354053888</v>
+        <v>2787451.763652951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>10.42550035781058</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>68.3594338028398</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45256041645978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>31.3905472428571</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>197.8873964228832</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.33297654915584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>157.2029797327301</v>
       </c>
       <c r="X8" t="n">
-        <v>155.8429996788543</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>179.5502959952861</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>134.0896134541869</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>83.10917526498497</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.70203588826206</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>179.6382723760862</v>
       </c>
       <c r="W16" t="n">
-        <v>262.5919994436146</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>98.00807076326772</v>
+        <v>26.88118599470497</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>201.7640607397983</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>180.3522383966726</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>140.9824427800608</v>
+        <v>222.7433136690811</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>46.47031367429662</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>175.3977777302085</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0118231325745</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>46.34216896083861</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>33.32815808118291</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>94.74745015088703</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.23837614724427</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>244.1009333794002</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.2186276237761</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.7034426439812</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274165</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3946,25 +3946,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>31.20689274014969</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5458618323668</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>79.8945283530895</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>167.0264723185522</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.309493689272</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1328.309493689272</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>970.0437950825215</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2451.921670198211</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2451.921670198211</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2120.85878285464</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1768.090127584526</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1718.448825665084</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.486308724672</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>991.220610117922</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4604,13 +4604,13 @@
         <v>2478.514423990286</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990286</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729206</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>2105.048665729206</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620391</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="X8" t="n">
-        <v>2131.93457488582</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="V10" t="n">
-        <v>546.7650488576605</v>
+        <v>336.276983312403</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>336.276983312403</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5069,7 +5069,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
         <v>1661.954360834046</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1080.10709002541</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>790.6899199884497</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X13" t="n">
-        <v>562.7003690904323</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615587</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822449</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5343,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
@@ -5361,22 +5361,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>553.0935746802517</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1317.463470178017</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1532743881928</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.9892362638</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>2786.879505108313</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>3033.644633014777</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>3644.018355938594</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>3973.880983602627</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>4253.421048821324</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>554.4977260965392</v>
       </c>
       <c r="C19" t="n">
-        <v>496.7497906007063</v>
+        <v>554.4977260965392</v>
       </c>
       <c r="D19" t="n">
-        <v>346.6331511883706</v>
+        <v>554.4977260965392</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585757</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557913</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119738</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703529</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247962</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247962</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>964.1357418247962</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>964.1357418247962</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>736.1461909267789</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>736.1461909267789</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5750,49 +5750,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>154.3878371814097</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>303.4575213834695</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2226492899335</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5932,28 +5932,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V22" t="n">
-        <v>4660.934562929845</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W22" t="n">
-        <v>4457.132481374493</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="X22" t="n">
-        <v>4457.132481374493</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="Y22" t="n">
-        <v>4236.339902230963</v>
+        <v>4054.691437400724</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698952</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102529</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1132.724347488761</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.724347488761</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W25" t="n">
-        <v>843.3071774518004</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X25" t="n">
-        <v>615.317626553783</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.5250474102529</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.343925613455</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.4452354807079</v>
+        <v>4073.011257337222</v>
       </c>
       <c r="C28" t="n">
-        <v>415.509052552801</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4813.914862232175</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4590.129447021681</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>4301.000808235239</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>4301.000808235239</v>
       </c>
       <c r="W28" t="n">
-        <v>986.8862794544777</v>
+        <v>4301.000808235239</v>
       </c>
       <c r="X28" t="n">
-        <v>986.8862794544777</v>
+        <v>4073.011257337222</v>
       </c>
       <c r="Y28" t="n">
-        <v>766.0937003109476</v>
+        <v>4073.011257337222</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M30" t="n">
-        <v>3907.324136615208</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>4237.18676427924</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4166.003522936599</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="C31" t="n">
-        <v>4166.003522936599</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D31" t="n">
-        <v>4166.003522936599</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>4018.090429354205</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>3871.200481856295</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>3703.025160176116</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>4814.044301336678</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>4590.258886126184</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803799</v>
+        <v>4301.130247339742</v>
       </c>
       <c r="V31" t="n">
-        <v>4637.069157803799</v>
+        <v>4301.130247339742</v>
       </c>
       <c r="W31" t="n">
-        <v>4347.651987766838</v>
+        <v>4011.713077302781</v>
       </c>
       <c r="X31" t="n">
-        <v>4347.651987766838</v>
+        <v>4011.713077302781</v>
       </c>
       <c r="Y31" t="n">
-        <v>4347.651987766838</v>
+        <v>3790.920498159251</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3446.276123502709</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>4250.687701766859</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4530.227766985557</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3829.93170466737</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="C34" t="n">
-        <v>3660.995521739463</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D34" t="n">
-        <v>3660.995521739463</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E34" t="n">
-        <v>3660.995521739463</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F34" t="n">
-        <v>3660.995521739463</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3492.820200059284</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
         <v>3459.155393916675</v>
@@ -6880,28 +6880,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>4749.779469576118</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W34" t="n">
-        <v>4460.362299539157</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X34" t="n">
-        <v>4232.37274864114</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="Y34" t="n">
-        <v>4011.58016949761</v>
+        <v>4221.048419669539</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128704</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.6365520183392</v>
+        <v>807.3465877976912</v>
       </c>
       <c r="C37" t="n">
-        <v>562.7003690904323</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>488.2937654574486</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>340.3806718750554</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>340.3806718750554</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>172.205350194876</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>172.205350194876</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7102,7 +7102,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>1141.274567746596</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>913.2850168485789</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.2850168485789</v>
+        <v>988.9950526279309</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,52 +7172,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3276.771031433521</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697672</v>
       </c>
       <c r="O39" t="n">
-        <v>2227.840212610279</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P39" t="n">
-        <v>2432.862693392488</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4093.273485435009</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C40" t="n">
-        <v>3924.337302507102</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>3774.220663094766</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>3774.220663094766</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576119</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576119</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="V40" t="n">
-        <v>4495.094981370232</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="W40" t="n">
-        <v>4495.094981370232</v>
+        <v>1030.00067360783</v>
       </c>
       <c r="X40" t="n">
-        <v>4495.094981370232</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y40" t="n">
-        <v>4274.302402226702</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805479</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,7 +7424,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,22 +7433,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,16 +7476,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7494,19 +7494,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845921</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.8045051785811</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293934</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4529700088208</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4529700088208</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4529700088208</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,34 +7661,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>943.0172707642137</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4054.691437400726</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C46" t="n">
-        <v>3885.755254472819</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D46" t="n">
-        <v>3885.755254472819</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>3885.755254472819</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.725934227851</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V46" t="n">
-        <v>4317.041446021964</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W46" t="n">
-        <v>4236.339902230965</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X46" t="n">
-        <v>4236.339902230965</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="Y46" t="n">
-        <v>4236.339902230965</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>18.73797368291349</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229574</v>
+        <v>306.1147370139945</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>15.83804904622848</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>286.5092576192338</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367943</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>28.12263706262911</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498444</v>
       </c>
       <c r="O36" t="n">
-        <v>38.86002301949884</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627447</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>199.6230805871073</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.6241510367944</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>285.1031356539331</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>286.5092576192338</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.028468058843</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>187.8826174638327</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.49937094774182</v>
       </c>
       <c r="W16" t="n">
-        <v>23.93099889297639</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>48.42589188330145</v>
+        <v>119.5527766518642</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>84.75893759679269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>38.23241495542214</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>145.2549096185166</v>
+        <v>63.49403872949628</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>151.4504963093066</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>111.1252206063825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>17.90200523496162</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>151.5786410227646</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5856702863532</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25132,16 +25132,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>123.8372032012078</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>36.1808693170277</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,19 +25366,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>42.42206495719077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6133525581611821</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>20.21736733962206</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,13 +25606,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>220.9307505836783</v>
       </c>
       <c r="W43" t="n">
-        <v>64.97713650422418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>206.6284699835015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>58.68318307048497</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.542419396</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193959</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934488</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430945</v>
+        <v>15045.66962143919</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430946</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-192879.3293748894</v>
+        <v>-193294.5438843567</v>
       </c>
       <c r="C6" t="n">
-        <v>397088.5498396547</v>
+        <v>396673.3353301876</v>
       </c>
       <c r="D6" t="n">
-        <v>397088.5498396549</v>
+        <v>396673.3353301875</v>
       </c>
       <c r="E6" t="n">
-        <v>-25763.8204864736</v>
+        <v>-26097.98945360316</v>
       </c>
       <c r="F6" t="n">
-        <v>499396.2159904225</v>
+        <v>499062.0470232931</v>
       </c>
       <c r="G6" t="n">
-        <v>499396.2159904221</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="H6" t="n">
-        <v>499396.2159904222</v>
+        <v>499062.0470232931</v>
       </c>
       <c r="I6" t="n">
-        <v>499396.2159904226</v>
+        <v>499062.047023293</v>
       </c>
       <c r="J6" t="n">
-        <v>322972.9967978296</v>
+        <v>322638.8278306999</v>
       </c>
       <c r="K6" t="n">
-        <v>499396.2159904225</v>
+        <v>499062.0470232928</v>
       </c>
       <c r="L6" t="n">
-        <v>499396.2159904221</v>
+        <v>499062.0470232927</v>
       </c>
       <c r="M6" t="n">
-        <v>364595.2007565855</v>
+        <v>364261.0317894554</v>
       </c>
       <c r="N6" t="n">
-        <v>499396.2159904223</v>
+        <v>499062.0470232928</v>
       </c>
       <c r="O6" t="n">
-        <v>499396.2159904226</v>
+        <v>499062.0470232925</v>
       </c>
       <c r="P6" t="n">
-        <v>499396.2159904223</v>
+        <v>499062.0470232927</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26802,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.5048697144512</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>148.088886554818</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6850829073682</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>350.5398228294047</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>151.3535722945298</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787163</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.251676802939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>192.0379889846829</v>
       </c>
       <c r="X8" t="n">
-        <v>213.8881009996147</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>72.58734732854185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>91.62004193485026</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>267.9956786389378</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>616.5391140644609</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118106</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>57.74822800113516</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>568.872959860342</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186335</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>387.2386125176823</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.353110871397</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>353.8818559928187</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>235.2160519941539</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>509.9122281478574</v>
       </c>
       <c r="O36" t="n">
-        <v>321.223725260607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375736</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.6371838218685</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>492.1965505854578</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>535.7669625752582</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862981.433317756</v>
+        <v>2855964.418426045</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>117.7843594212379</v>
       </c>
       <c r="H2" t="n">
-        <v>147.12066445869</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.4685441446654</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.728305473662</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.4552014283703</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>14.48628953405844</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.52829397039079</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>89.87174309639745</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.9038742416625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>145.8215431037986</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385025</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>85.16482141306491</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>60.98623595134222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9604981520619</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.562624396425339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>51.20625775179418</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.8064269214864</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.7864393527165</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051996</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>105.1049988954465</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>70.7001831180248</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>154.2952773523773</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896902</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.54139430664167</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.995544662309</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.435086552838</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>967.4725696124262</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>609.2068710056758</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="E2" t="n">
-        <v>223.4186184074316</v>
+        <v>179.8625829950608</v>
       </c>
       <c r="F2" t="n">
-        <v>216.4731176582281</v>
+        <v>172.9170822458573</v>
       </c>
       <c r="G2" t="n">
-        <v>202.549713596819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.03492661696</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2170.876182214546</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>170.577874895784</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>170.577874895784</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2170.876182214546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2170.876182214546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2170.876182214546</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>2170.876182214546</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2627.487785857747</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2627.487785857747</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>183.971520364736</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>183.971520364736</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>183.971520364736</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>183.971520364736</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>607.9325265788466</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>607.9325265788466</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>607.9325265788466</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>607.9325265788466</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>607.9325265788466</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1547.452423968253</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.489907027842</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>820.2242084210911</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>434.4359558228469</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298166</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>348.1274173019098</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>348.1274173019098</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>348.1274173019098</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>201.2374698039994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>201.2374698039994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>223.1552313137082</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582209</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.810628064685</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6713633309776</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309776</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
         <v>208.7516828383384</v>
@@ -5196,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1102.453493372525</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>874.4639424745077</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.6713633309776</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>699.549492758205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>699.549492758205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>551.6363991758119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>404.7464516779015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>236.5711299977221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557899</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557899</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557899</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557899</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516352</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281742</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945775</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164473</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169056</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>330.825454879945</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>102.8359039819276</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1447.192777879322</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1447.192777879322</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1447.192777879322</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1447.192777879322</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1447.192777879322</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1157.775607842362</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>929.7860569443443</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,31 +5977,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.5203921878137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>357.5203921878137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858311</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>357.5203921878137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>357.5203921878137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>668.5656656016674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.006709575437</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>850.2141304319072</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,34 +6457,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4255.500682889111</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>4255.500682889111</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1343.062455050451</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1119.277039839956</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>1119.277039839956</v>
       </c>
       <c r="V31" t="n">
-        <v>4437.14914771935</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="W31" t="n">
-        <v>4437.14914771935</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X31" t="n">
-        <v>4437.14914771935</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y31" t="n">
-        <v>4437.14914771935</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929846</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143404</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4117.121435937517</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>3827.704265900556</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>3599.714715002539</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7128,16 +7128,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.30006332127742</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776735</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>94.66715876887238</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>225.5367623852488</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>10.95333021547424</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.0220289556694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>58.7580946519986</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>14.74113413690284</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>39.82903366549588</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>62.14182220318135</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>77.91528990018756</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>43.62553263122595</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43092547709057</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.9521741567359</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776764.5424193959</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
@@ -26325,37 +26325,37 @@
         <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26429,25 +26429,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26490,16 +26490,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-193294.5438843568</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301876</v>
+        <v>396673.3353301877</v>
       </c>
       <c r="D6" t="n">
         <v>396673.3353301877</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360346</v>
+        <v>-27072.58071332498</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635714</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306999</v>
+        <v>321664.2365709783</v>
       </c>
       <c r="K6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.455763571</v>
       </c>
       <c r="L6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="M6" t="n">
-        <v>364261.0317894557</v>
+        <v>363286.440529734</v>
       </c>
       <c r="N6" t="n">
-        <v>499062.0470232925</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="O6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635712</v>
       </c>
       <c r="P6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>295.9998105995571</v>
       </c>
       <c r="H2" t="n">
-        <v>176.8021083056672</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>51.84125811438554</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>17.40933785016603</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.2786402351102</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>159.9294232749131</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>51.43732782194746</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.4101311455803</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>43.97217150004889</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>10.34934573799654</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-7.469682599151581e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2102422761841</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349766</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187098</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2855964.418426045</v>
+        <v>2860903.681275076</v>
       </c>
     </row>
     <row r="7">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>117.7843594212379</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>115.4685441446654</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.1608002224379</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>14.48628953405844</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.52829397039079</v>
+        <v>43.8661741675806</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>30.99636303581896</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.16482141306491</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.98540654304534</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.6677663872015</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>134.7426179953489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.20625775179418</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>173.3098319902317</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051996</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>211.2541671901477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.2952773523773</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896902</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>118.995544662309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.090798542223</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C2" t="n">
-        <v>538.1282816018113</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D2" t="n">
-        <v>179.8625829950608</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E2" t="n">
-        <v>179.8625829950608</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>172.9170822458573</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781771</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781771</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>318.4909684781771</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>170.577874895784</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>170.577874895784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2627.487785857747</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2627.487785857747</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2373.726000495839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2373.726000495839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.726000495839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.260242234759</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>331.8846139471291</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D7" t="n">
-        <v>331.8846139471291</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E7" t="n">
-        <v>183.971520364736</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F7" t="n">
-        <v>183.971520364736</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G7" t="n">
-        <v>183.971520364736</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="H7" t="n">
-        <v>183.971520364736</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506741</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
         <v>208.7516828383384</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1447.415859908362</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1447.415859908362</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1223.630444697867</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>934.5018059114255</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>679.8173177055387</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>390.400147668578</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850831</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
         <v>1198.760773441947</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="17">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1447.192777879322</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1447.192777879322</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1447.192777879322</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1447.192777879322</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.192777879322</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.775607842362</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>929.7860569443443</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,34 +5983,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1343.062455050451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1119.277039839956</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1119.277039839956</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>864.5925516340694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>864.5925516340694</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>636.6030007360521</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>531.109187020113</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>303.1196361220957</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7359,7 +7359,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7593,22 +7593,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>554.8095831774258</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.66715876887238</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>58.97894586074744</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.85523194938952</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>58.7580946519986</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>52.39982339880544</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>14.45548819888947</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>43.62553263122595</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26316,43 +26316,43 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="K2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="L2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934487</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,13 +26441,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843568</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301877</v>
+        <v>396673.3353301878</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301877</v>
+        <v>396673.3353301876</v>
       </c>
       <c r="E6" t="n">
-        <v>-27072.58071332498</v>
+        <v>-26195.44857957562</v>
       </c>
       <c r="F6" t="n">
-        <v>498087.4557635714</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="G6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="H6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="I6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="J6" t="n">
-        <v>321664.2365709783</v>
+        <v>322541.3687047277</v>
       </c>
       <c r="K6" t="n">
-        <v>498087.455763571</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="L6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="M6" t="n">
-        <v>363286.440529734</v>
+        <v>364163.5726634835</v>
       </c>
       <c r="N6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="O6" t="n">
-        <v>498087.4557635712</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="P6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973208</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,13 +26758,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>295.9998105995571</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>51.84125811438554</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.54885516659928</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>159.9294232749131</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>51.43732782194746</v>
+        <v>91.09944762475763</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>338.7347376426501</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-7.469682599151581e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,13 +35734,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36922,16 +36922,16 @@
         <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
